--- a/console/Networking/podChExcel/podMixinsXlsx/components/create/advancedBox_hostAlias.xlsx
+++ b/console/Networking/podChExcel/podMixinsXlsx/components/create/advancedBox_hostAlias.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.23\console_1901-24_HO-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>advancedBox_hostAlias_i18nKey_1</t>
   </si>
@@ -114,9 +109,6 @@
     <t>advancedBox_hostAlias_i18nKey_11</t>
   </si>
   <si>
-    <t>'Please enter the IP address'</t>
-  </si>
-  <si>
     <t>advancedBox_hostAlias_i18nKey_12</t>
   </si>
   <si>
@@ -126,21 +118,12 @@
     <t>advancedBox_hostAlias_i18nKey_13</t>
   </si>
   <si>
-    <t>'Please enter domain(s)'</t>
-  </si>
-  <si>
     <t>advancedBox_hostAlias_i18nKey_14</t>
   </si>
   <si>
-    <t xml:space="preserve"> separated by "</t>
-  </si>
-  <si>
     <t>advancedBox_hostAlias_i18nKey_15</t>
   </si>
   <si>
-    <t>'</t>
-  </si>
-  <si>
     <t>advancedBox_hostAlias_i18nKey_16</t>
   </si>
   <si>
@@ -660,6 +643,18 @@
   </si>
   <si>
     <t>Domain and IP mapping number have reached the cap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter domain(s)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> separated by english</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter the IP address'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +662,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -694,6 +689,17 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -715,10 +721,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1059,20 +1077,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="26" style="1"/>
     <col min="3" max="3" width="52.125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="26" style="1"/>
+    <col min="4" max="4" width="26" style="3"/>
+    <col min="5" max="16384" width="26" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1083,29 +1102,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1116,18 +1135,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1138,119 +1157,124 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="107.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B16" numberStoredAsText="1"/>
   </ignoredErrors>
